--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_angel_1_1.xlsx
@@ -31,7 +31,7 @@
     <t>顺利结束一天工作的能天使，在回到基地后，收到了意料之外的来信。</t>
   </si>
   <si>
-    <t xml:space="preserve">顺利结束一天工作的能天使，在回到基地后，收到了意料之外的来信。
+    <t xml:space="preserve">一仕事終えたエクシアがアジトへ戻ると、意外な人からの手紙が届いていた。
 </t>
   </si>
   <si>
